--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value862.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.124017455852967</v>
+        <v>0.7333130836486816</v>
       </c>
       <c r="B1">
-        <v>2.601644402875019</v>
+        <v>2.931930780410767</v>
       </c>
       <c r="C1">
-        <v>4.462053736525008</v>
+        <v>3.093540906906128</v>
       </c>
       <c r="D1">
-        <v>2.50885078603928</v>
+        <v>2.450787305831909</v>
       </c>
       <c r="E1">
-        <v>1.183619687700826</v>
+        <v>1.499755024909973</v>
       </c>
     </row>
   </sheetData>
